--- a/OnlineExamManagmentSystem/src/main/resources/static/class_data.xlsx
+++ b/OnlineExamManagmentSystem/src/main/resources/static/class_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bffdf37e9d207c1f/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{773F9181-719E-4EFA-AF33-4D73B816F8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{DAEF0652-B300-49B6-8418-84EE7A630C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Class Information</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Professor:</t>
   </si>
   <si>
-    <t>Course:</t>
-  </si>
-  <si>
     <t>Students List:</t>
   </si>
   <si>
@@ -53,23 +50,25 @@
   </si>
   <si>
     <t>*course-id-here*</t>
+  </si>
+  <si>
+    <t>Course ID:</t>
+  </si>
+  <si>
+    <t>*student-id-here*</t>
+  </si>
+  <si>
+    <t>*and so on…*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -104,8 +103,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <sz val="20"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -139,6 +154,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -154,6 +173,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -360,90 +383,96 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="32.19921875" customWidth="1"/>
     <col min="2" max="2" width="14.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
